--- a/2-PROJ/14-Carte_Alim_2019/Project Outputs for Carte_Alim_2019/BOM/BOM_multi-carte.xlsx
+++ b/2-PROJ/14-Carte_Alim_2019/Project Outputs for Carte_Alim_2019/BOM/BOM_multi-carte.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>designator</t>
   </si>
@@ -539,6 +539,33 @@
   </si>
   <si>
     <t>dispo farnell insuffisante</t>
+  </si>
+  <si>
+    <t>Micro-Fit 3.0, Embase, 6 Voies</t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>43025-0600</t>
+  </si>
+  <si>
+    <t>39-01-2040</t>
+  </si>
+  <si>
+    <t>Mini-Fit Jr. Série, Embase, 4 Voies</t>
+  </si>
+  <si>
+    <t>Contact, RMF™, Série Micro-Fit 3.0 AWG26</t>
+  </si>
+  <si>
+    <t>43030-0006</t>
+  </si>
+  <si>
+    <t>Contact, Mini-Fit® Jr.™, Série 5556, AWG18</t>
+  </si>
+  <si>
+    <t>39-00-0038</t>
   </si>
 </sst>
 </file>
@@ -869,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1126,6 +1153,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1150,9 +1183,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,8 +1195,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2307,28 +2337,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU58"/>
+  <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM43" sqref="AM43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.88671875" style="31" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="0" style="31" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="31" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="19" width="3.33203125" style="31" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="11.5546875" style="31"/>
-    <col min="21" max="21" width="9.21875" style="31" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" style="31" hidden="1" customWidth="1"/>
     <col min="22" max="34" width="3.33203125" style="31" hidden="1" customWidth="1"/>
     <col min="35" max="36" width="11.5546875" style="31"/>
-    <col min="37" max="37" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.109375" style="31" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" style="31" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="16.88671875" style="31" customWidth="1"/>
-    <col min="40" max="41" width="20.21875" style="31" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="20.21875" style="31" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="18.44140625" style="31" customWidth="1"/>
     <col min="42" max="42" width="11.5546875" style="32" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.5546875" style="32"/>
     <col min="44" max="44" width="42.33203125" style="35" customWidth="1"/>
@@ -2352,41 +2383,41 @@
       <c r="E1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="90"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="92"/>
       <c r="T1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="88" t="s">
+      <c r="U1" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="90"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="92"/>
       <c r="AI1" s="77" t="s">
         <v>95</v>
       </c>
@@ -2493,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="T2" s="57">
-        <f t="shared" ref="T2:T49" si="0">SUM(F2:S2)</f>
+        <f t="shared" ref="T2:T53" si="0">SUM(F2:S2)</f>
         <v>51</v>
       </c>
       <c r="U2" s="57">
@@ -2561,7 +2592,7 @@
       </c>
       <c r="AK2" s="57"/>
       <c r="AL2" s="59">
-        <f t="shared" ref="AL2:AL49" si="1">E2*AK2*1.2</f>
+        <f t="shared" ref="AL2:AL53" si="1">E2*AK2*1.2</f>
         <v>0</v>
       </c>
       <c r="AM2" s="42">
@@ -2581,7 +2612,7 @@
         <v>2.4672000000000001</v>
       </c>
       <c r="AQ2" s="59">
-        <f t="shared" ref="AQ2:AQ49" si="2">MAX(AM2*E2*1.2,0)</f>
+        <f t="shared" ref="AQ2:AQ53" si="2">MAX(AM2*E2*1.2,0)</f>
         <v>18.503999999999998</v>
       </c>
     </row>
@@ -2721,14 +2752,14 @@
         <v>0</v>
       </c>
       <c r="AI3" s="57">
-        <f t="shared" ref="AI3:AI49" si="3">SUM(U3:AH3)</f>
+        <f t="shared" ref="AI3:AI53" si="3">SUM(U3:AH3)</f>
         <v>4</v>
       </c>
       <c r="AJ3" s="57">
         <v>2</v>
       </c>
       <c r="AK3" s="60">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL3" s="59">
@@ -2736,19 +2767,19 @@
         <v>2.7840000000000003</v>
       </c>
       <c r="AM3" s="42">
-        <f t="shared" ref="AM3:AM49" si="4">MAX(T3+AJ3-AK3,0)</f>
+        <f t="shared" ref="AM3:AM53" si="4">MAX(T3+AJ3-AK3,0)</f>
         <v>10</v>
       </c>
       <c r="AN3" s="57" t="b">
-        <f t="shared" ref="AN3:AN49" si="5">AND(AM3&lt;&gt;0,AK3&lt;&gt;0)</f>
+        <f t="shared" ref="AN3:AN53" si="5">AND(AM3&lt;&gt;0,AK3&lt;&gt;0)</f>
         <v>1</v>
       </c>
       <c r="AO3" s="57">
-        <f t="shared" ref="AO3:AO49" si="6">IF(AN3,MAX(AI3,0),MAX(AI3-AK3,0))</f>
+        <f t="shared" ref="AO3:AO53" si="6">IF(AN3,MAX(AI3,0),MAX(AI3-AK3,0))</f>
         <v>4</v>
       </c>
       <c r="AP3" s="59">
-        <f t="shared" ref="AP3:AP49" si="7">MAX(AO3*E3*1.2,0)</f>
+        <f t="shared" ref="AP3:AP53" si="7">MAX(AO3*E3*1.2,0)</f>
         <v>1.1135999999999999</v>
       </c>
       <c r="AQ3" s="59">
@@ -3233,7 +3264,7 @@
       </c>
       <c r="AJ6" s="57"/>
       <c r="AK6" s="60">
-        <f>AS54/2</f>
+        <f>AS58/2</f>
         <v>5</v>
       </c>
       <c r="AL6" s="59">
@@ -3404,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="AK7" s="60">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL7" s="59">
@@ -3915,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="AK10" s="60">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL10" s="59">
@@ -5112,7 +5143,7 @@
       </c>
       <c r="AJ17" s="57"/>
       <c r="AK17" s="60">
-        <f>AS54/2</f>
+        <f>AS58/2</f>
         <v>5</v>
       </c>
       <c r="AL17" s="59">
@@ -5625,7 +5656,7 @@
       </c>
       <c r="AJ20" s="57"/>
       <c r="AK20" s="60">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL20" s="59">
@@ -5795,7 +5826,7 @@
       </c>
       <c r="AJ21" s="57"/>
       <c r="AK21" s="62">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL21" s="59">
@@ -5967,7 +5998,7 @@
         <v>2</v>
       </c>
       <c r="AK22" s="62">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL22" s="59">
@@ -6340,7 +6371,7 @@
         <f t="shared" si="2"/>
         <v>40.08</v>
       </c>
-      <c r="AR24" s="101" t="s">
+      <c r="AR24" s="88" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6653,7 +6684,7 @@
       </c>
       <c r="AJ26" s="57"/>
       <c r="AK26" s="62">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL26" s="59">
@@ -7002,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="AK28" s="62">
-        <f>AS54</f>
+        <f>AS58</f>
         <v>10</v>
       </c>
       <c r="AL28" s="59">
@@ -9232,11 +9263,11 @@
     <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="58" t="str">
         <f>'données d''entrée'!C44</f>
-        <v>Connecteur fil-à-carte, Libre, 2.54 mm, 6 Contact(s), Mâle, Série WR-MM</v>
-      </c>
-      <c r="B42" s="74">
+        <v>Micro-Fit 3.0, Embase, 6 Voies</v>
+      </c>
+      <c r="B42" s="74" t="str">
         <f>'données d''entrée'!E44</f>
-        <v>690157000672</v>
+        <v>43025-0600</v>
       </c>
       <c r="C42" s="57" t="str">
         <f>'données d''entrée'!F44</f>
@@ -9244,18 +9275,18 @@
       </c>
       <c r="D42" s="57">
         <f>'données d''entrée'!H44</f>
-        <v>1641882</v>
+        <v>672907</v>
       </c>
       <c r="E42" s="59">
-        <v>0.41899999999999998</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F42" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J44</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42" s="57">
         <f>'liste des cartes'!D$13*'données d''entrée'!K44</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H42" s="57">
         <f>'liste des cartes'!E$13*'données d''entrée'!L44</f>
@@ -9271,7 +9302,7 @@
       </c>
       <c r="K42" s="57">
         <f>'liste des cartes'!H$13*'données d''entrée'!O44</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L42" s="57">
         <f>'liste des cartes'!I$13*'données d''entrée'!P44</f>
@@ -9279,7 +9310,7 @@
       </c>
       <c r="M42" s="57">
         <f>'liste des cartes'!J$13*'données d''entrée'!Q44</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="N42" s="57">
         <f>'liste des cartes'!K$13*'données d''entrée'!R44</f>
@@ -9303,11 +9334,11 @@
       </c>
       <c r="S42" s="57">
         <f>'liste des cartes'!P$13*'données d''entrée'!W44</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T42" s="57">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="T42:T45" si="8">SUM(F42:S42)</f>
+        <v>4</v>
       </c>
       <c r="U42" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J44</f>
@@ -9315,7 +9346,7 @@
       </c>
       <c r="V42" s="57">
         <f>'liste des cartes'!D$8*'données d''entrée'!K44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" s="57">
         <f>'liste des cartes'!E$8*'données d''entrée'!L44</f>
@@ -9331,7 +9362,7 @@
       </c>
       <c r="Z42" s="57">
         <f>'liste des cartes'!H$8*'données d''entrée'!O44</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="57">
         <f>'liste des cartes'!I$8*'données d''entrée'!P44</f>
@@ -9339,7 +9370,7 @@
       </c>
       <c r="AB42" s="57">
         <f>'liste des cartes'!J$8*'données d''entrée'!Q44</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="57">
         <f>'liste des cartes'!K$8*'données d''entrée'!R44</f>
@@ -9366,49 +9397,46 @@
         <v>0</v>
       </c>
       <c r="AI42" s="57">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="AI42:AI45" si="9">SUM(U42:AH42)</f>
+        <v>0</v>
       </c>
       <c r="AJ42" s="57">
-        <v>2</v>
-      </c>
-      <c r="AK42" s="62">
-        <f>AS54</f>
+        <v>6</v>
+      </c>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="59">
+        <f t="shared" ref="AL42:AL45" si="10">E42*AK42*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="89">
+        <f t="shared" ref="AM42:AM45" si="11">MAX(T42+AJ42-AK42,0)</f>
         <v>10</v>
       </c>
-      <c r="AL42" s="59">
-        <f t="shared" si="1"/>
-        <v>5.0279999999999996</v>
-      </c>
-      <c r="AM42" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AN42" s="57" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AN42:AN45" si="12">AND(AM42&lt;&gt;0,AK42&lt;&gt;0)</f>
         <v>0</v>
       </c>
       <c r="AO42" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AO42:AO45" si="13">IF(AN42,MAX(AI42,0),MAX(AI42-AK42,0))</f>
         <v>0</v>
       </c>
       <c r="AP42" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AP42:AP45" si="14">MAX(AO42*E42*1.2,0)</f>
         <v>0</v>
       </c>
       <c r="AQ42" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="AQ42:AQ46" si="15">MAX(AM42*E42*1.2,0)</f>
+        <v>3.9239999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="58" t="str">
         <f>'données d''entrée'!C45</f>
-        <v>Connecteur fil-à-carte, Libre, 2.54 mm, 8 Contact(s), Mâle, Série WR-MM</v>
-      </c>
-      <c r="B43" s="74">
+        <v>Contact, RMF™, Série Micro-Fit 3.0 AWG26</v>
+      </c>
+      <c r="B43" s="74" t="str">
         <f>'données d''entrée'!E45</f>
-        <v>690157000872</v>
+        <v>43030-0006</v>
       </c>
       <c r="C43" s="57" t="str">
         <f>'données d''entrée'!F45</f>
@@ -9416,14 +9444,14 @@
       </c>
       <c r="D43" s="57">
         <f>'données d''entrée'!H45</f>
-        <v>1641883</v>
+        <v>2063718</v>
       </c>
       <c r="E43" s="59">
-        <v>0.81</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F43" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J45</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G43" s="57">
         <f>'liste des cartes'!D$13*'données d''entrée'!K45</f>
@@ -9451,11 +9479,11 @@
       </c>
       <c r="M43" s="57">
         <f>'liste des cartes'!J$13*'données d''entrée'!Q45</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N43" s="57">
         <f>'liste des cartes'!K$13*'données d''entrée'!R45</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O43" s="57">
         <f>'liste des cartes'!L$13*'données d''entrée'!S45</f>
@@ -9475,11 +9503,11 @@
       </c>
       <c r="S43" s="57">
         <f>'liste des cartes'!P$13*'données d''entrée'!W45</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T43" s="57">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>24</v>
       </c>
       <c r="U43" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J45</f>
@@ -9511,11 +9539,11 @@
       </c>
       <c r="AB43" s="57">
         <f>'liste des cartes'!J$8*'données d''entrée'!Q45</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="57">
         <f>'liste des cartes'!K$8*'données d''entrée'!R45</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="57">
         <f>'liste des cartes'!L$8*'données d''entrée'!S45</f>
@@ -9538,52 +9566,46 @@
         <v>0</v>
       </c>
       <c r="AI43" s="57">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AJ43" s="57">
-        <v>2</v>
-      </c>
-      <c r="AK43" s="62">
-        <f>AS54</f>
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AK43" s="57"/>
       <c r="AL43" s="59">
-        <f t="shared" si="1"/>
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="AM43" s="42">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="89">
+        <f t="shared" si="11"/>
+        <v>30</v>
       </c>
       <c r="AN43" s="57" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AO43" s="57">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AP43" s="59">
-        <f t="shared" si="7"/>
-        <v>1.944</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AQ43" s="59">
-        <f t="shared" si="2"/>
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="AR43" s="101" t="s">
-        <v>101</v>
+        <f t="shared" si="15"/>
+        <v>1.8719999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="str">
         <f>'données d''entrée'!C46</f>
-        <v>Bornier enfichable, 5.08 mm, 2 Voies</v>
-      </c>
-      <c r="B44" s="74">
+        <v>Mini-Fit Jr. Série, Embase, 4 Voies</v>
+      </c>
+      <c r="B44" s="74" t="str">
         <f>'données d''entrée'!E46</f>
-        <v>691351500002</v>
+        <v>39-01-2040</v>
       </c>
       <c r="C44" s="57" t="str">
         <f>'données d''entrée'!F46</f>
@@ -9591,18 +9613,18 @@
       </c>
       <c r="D44" s="57">
         <f>'données d''entrée'!H46</f>
-        <v>1641952</v>
+        <v>151867</v>
       </c>
       <c r="E44" s="59">
-        <v>0.78</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="F44" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J46</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" s="57">
         <f>'liste des cartes'!D$13*'données d''entrée'!K46</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44" s="57">
         <f>'liste des cartes'!E$13*'données d''entrée'!L46</f>
@@ -9653,8 +9675,8 @@
         <v>0</v>
       </c>
       <c r="T44" s="57">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="U44" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J46</f>
@@ -9662,7 +9684,7 @@
       </c>
       <c r="V44" s="57">
         <f>'liste des cartes'!D$8*'données d''entrée'!K46</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W44" s="57">
         <f>'liste des cartes'!E$8*'données d''entrée'!L46</f>
@@ -9713,47 +9735,46 @@
         <v>0</v>
       </c>
       <c r="AI44" s="57">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="62">
-        <f>AS54</f>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="57">
+        <v>6</v>
+      </c>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="59">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="89">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="AL44" s="59">
-        <f t="shared" si="1"/>
-        <v>9.3600000000000012</v>
-      </c>
-      <c r="AM44" s="42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AN44" s="57" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO44" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP44" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AQ44" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2.1119999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="58" t="str">
         <f>'données d''entrée'!C47</f>
-        <v>Bornier enfichable, 3,5 mm, 2 Voies</v>
-      </c>
-      <c r="B45" s="74">
+        <v>Contact, Mini-Fit® Jr.™, Série 5556, AWG18</v>
+      </c>
+      <c r="B45" s="74" t="str">
         <f>'données d''entrée'!E47</f>
-        <v>691361100002</v>
+        <v>39-00-0038</v>
       </c>
       <c r="C45" s="57" t="str">
         <f>'données d''entrée'!F47</f>
@@ -9761,14 +9782,14 @@
       </c>
       <c r="D45" s="57">
         <f>'données d''entrée'!H47</f>
-        <v>1841347</v>
+        <v>1462545</v>
       </c>
       <c r="E45" s="59">
-        <v>1.1100000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F45" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J47</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G45" s="57">
         <f>'liste des cartes'!D$13*'données d''entrée'!K47</f>
@@ -9776,11 +9797,11 @@
       </c>
       <c r="H45" s="57">
         <f>'liste des cartes'!E$13*'données d''entrée'!L47</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I45" s="57">
         <f>'liste des cartes'!F$13*'données d''entrée'!M47</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" s="57">
         <f>'liste des cartes'!G$13*'données d''entrée'!N47</f>
@@ -9788,7 +9809,7 @@
       </c>
       <c r="K45" s="57">
         <f>'liste des cartes'!H$13*'données d''entrée'!O47</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L45" s="57">
         <f>'liste des cartes'!I$13*'données d''entrée'!P47</f>
@@ -9823,8 +9844,8 @@
         <v>0</v>
       </c>
       <c r="T45" s="57">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="U45" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J47</f>
@@ -9836,11 +9857,11 @@
       </c>
       <c r="W45" s="57">
         <f>'liste des cartes'!E$8*'données d''entrée'!L47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="57">
         <f>'liste des cartes'!F$8*'données d''entrée'!M47</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="57">
         <f>'liste des cartes'!G$8*'données d''entrée'!N47</f>
@@ -9848,7 +9869,7 @@
       </c>
       <c r="Z45" s="57">
         <f>'liste des cartes'!H$8*'données d''entrée'!O47</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="57">
         <f>'liste des cartes'!I$8*'données d''entrée'!P47</f>
@@ -9883,47 +9904,46 @@
         <v>0</v>
       </c>
       <c r="AI45" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="57">
         <v>4</v>
       </c>
-      <c r="AJ45" s="57"/>
-      <c r="AK45" s="62">
-        <f>AS54</f>
-        <v>10</v>
-      </c>
+      <c r="AK45" s="57"/>
       <c r="AL45" s="59">
-        <f t="shared" si="1"/>
-        <v>13.320000000000002</v>
-      </c>
-      <c r="AM45" s="42">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="89">
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
       <c r="AN45" s="57" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AO45" s="57">
-        <f t="shared" si="6"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AP45" s="59">
-        <f t="shared" si="7"/>
-        <v>5.3280000000000003</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AQ45" s="59">
-        <f t="shared" si="2"/>
-        <v>9.3239999999999998</v>
+        <f t="shared" si="15"/>
+        <v>0.69600000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="58" t="str">
         <f>'données d''entrée'!C48</f>
-        <v>Fusible ATOF 30A</v>
-      </c>
-      <c r="B46" s="74" t="str">
+        <v>Connecteur fil-à-carte, Libre, 2.54 mm, 6 Contact(s), Mâle, Série WR-MM</v>
+      </c>
+      <c r="B46" s="74">
         <f>'données d''entrée'!E48</f>
-        <v>0287030.PXCN</v>
+        <v>690157000672</v>
       </c>
       <c r="C46" s="57" t="str">
         <f>'données d''entrée'!F48</f>
@@ -9931,10 +9951,10 @@
       </c>
       <c r="D46" s="57">
         <f>'données d''entrée'!H48</f>
-        <v>2137132</v>
+        <v>1641882</v>
       </c>
       <c r="E46" s="59">
-        <v>0.16700000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="F46" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J48</f>
@@ -9958,7 +9978,7 @@
       </c>
       <c r="K46" s="57">
         <f>'liste des cartes'!H$13*'données d''entrée'!O48</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" s="57">
         <f>'liste des cartes'!I$13*'données d''entrée'!P48</f>
@@ -9966,7 +9986,7 @@
       </c>
       <c r="M46" s="57">
         <f>'liste des cartes'!J$13*'données d''entrée'!Q48</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="N46" s="57">
         <f>'liste des cartes'!K$13*'données d''entrée'!R48</f>
@@ -9990,11 +10010,11 @@
       </c>
       <c r="S46" s="57">
         <f>'liste des cartes'!P$13*'données d''entrée'!W48</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T46" s="57">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U46" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J48</f>
@@ -10018,7 +10038,7 @@
       </c>
       <c r="Z46" s="57">
         <f>'liste des cartes'!H$8*'données d''entrée'!O48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA46" s="57">
         <f>'liste des cartes'!I$8*'données d''entrée'!P48</f>
@@ -10026,7 +10046,7 @@
       </c>
       <c r="AB46" s="57">
         <f>'liste des cartes'!J$8*'données d''entrée'!Q48</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46" s="57">
         <f>'liste des cartes'!K$8*'données d''entrée'!R48</f>
@@ -10057,16 +10077,19 @@
         <v>1</v>
       </c>
       <c r="AJ46" s="57">
-        <v>5</v>
-      </c>
-      <c r="AK46" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK46" s="62">
+        <f>AS58</f>
+        <v>10</v>
+      </c>
       <c r="AL46" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0279999999999996</v>
       </c>
       <c r="AM46" s="42">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="57" t="b">
         <f t="shared" si="5"/>
@@ -10074,25 +10097,25 @@
       </c>
       <c r="AO46" s="57">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="59">
         <f t="shared" si="7"/>
-        <v>0.20039999999999999</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="59">
-        <f t="shared" si="2"/>
-        <v>2.004</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="58" t="str">
         <f>'données d''entrée'!C49</f>
-        <v>Fusible ATOF 40A</v>
-      </c>
-      <c r="B47" s="74" t="str">
+        <v>Connecteur fil-à-carte, Libre, 2.54 mm, 8 Contact(s), Mâle, Série WR-MM</v>
+      </c>
+      <c r="B47" s="74">
         <f>'données d''entrée'!E49</f>
-        <v>0287040.PXCN</v>
+        <v>690157000872</v>
       </c>
       <c r="C47" s="57" t="str">
         <f>'données d''entrée'!F49</f>
@@ -10100,10 +10123,10 @@
       </c>
       <c r="D47" s="57">
         <f>'données d''entrée'!H49</f>
-        <v>2137134</v>
+        <v>1641883</v>
       </c>
       <c r="E47" s="59">
-        <v>0.16800000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="F47" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J49</f>
@@ -10111,7 +10134,7 @@
       </c>
       <c r="G47" s="57">
         <f>'liste des cartes'!D$13*'données d''entrée'!K49</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47" s="57">
         <f>'liste des cartes'!E$13*'données d''entrée'!L49</f>
@@ -10135,11 +10158,11 @@
       </c>
       <c r="M47" s="57">
         <f>'liste des cartes'!J$13*'données d''entrée'!Q49</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N47" s="57">
         <f>'liste des cartes'!K$13*'données d''entrée'!R49</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O47" s="57">
         <f>'liste des cartes'!L$13*'données d''entrée'!S49</f>
@@ -10159,11 +10182,11 @@
       </c>
       <c r="S47" s="57">
         <f>'liste des cartes'!P$13*'données d''entrée'!W49</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T47" s="57">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U47" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J49</f>
@@ -10171,7 +10194,7 @@
       </c>
       <c r="V47" s="57">
         <f>'liste des cartes'!D$8*'données d''entrée'!K49</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="57">
         <f>'liste des cartes'!E$8*'données d''entrée'!L49</f>
@@ -10195,11 +10218,11 @@
       </c>
       <c r="AB47" s="57">
         <f>'liste des cartes'!J$8*'données d''entrée'!Q49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="57">
         <f>'liste des cartes'!K$8*'données d''entrée'!R49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="57">
         <f>'liste des cartes'!L$8*'données d''entrée'!S49</f>
@@ -10223,45 +10246,51 @@
       </c>
       <c r="AI47" s="57">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ47" s="57">
-        <v>5</v>
-      </c>
-      <c r="AK47" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="AK47" s="62">
+        <f>AS58</f>
+        <v>10</v>
+      </c>
       <c r="AL47" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="AM47" s="42">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AN47" s="57" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO47" s="57">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP47" s="59">
         <f t="shared" si="7"/>
-        <v>0.2016</v>
+        <v>1.944</v>
       </c>
       <c r="AQ47" s="59">
         <f t="shared" si="2"/>
-        <v>2.016</v>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AR47" s="88" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="58" t="str">
         <f>'données d''entrée'!C50</f>
-        <v>Patte à braser</v>
-      </c>
-      <c r="B48" s="74" t="str">
+        <v>Bornier enfichable, 5.08 mm, 2 Voies</v>
+      </c>
+      <c r="B48" s="74">
         <f>'données d''entrée'!E50</f>
-        <v>SMD291AX10</v>
+        <v>691351500002</v>
       </c>
       <c r="C48" s="57" t="str">
         <f>'données d''entrée'!F50</f>
@@ -10269,18 +10298,18 @@
       </c>
       <c r="D48" s="57">
         <f>'données d''entrée'!H50</f>
-        <v>1850223</v>
+        <v>1641952</v>
       </c>
       <c r="E48" s="59">
-        <v>19.57</v>
+        <v>0.78</v>
       </c>
       <c r="F48" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J50</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="57">
         <f>'liste des cartes'!D$13*'données d''entrée'!K50</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H48" s="57">
         <f>'liste des cartes'!E$13*'données d''entrée'!L50</f>
@@ -10332,7 +10361,7 @@
       </c>
       <c r="T48" s="57">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U48" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J50</f>
@@ -10340,7 +10369,7 @@
       </c>
       <c r="V48" s="57">
         <f>'liste des cartes'!D$8*'données d''entrée'!K50</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W48" s="57">
         <f>'liste des cartes'!E$8*'données d''entrée'!L50</f>
@@ -10392,17 +10421,20 @@
       </c>
       <c r="AI48" s="57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ48" s="57"/>
-      <c r="AK48" s="57"/>
+      <c r="AK48" s="62">
+        <f>AS58</f>
+        <v>10</v>
+      </c>
       <c r="AL48" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.3600000000000012</v>
       </c>
       <c r="AM48" s="42">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="57" t="b">
         <f t="shared" si="5"/>
@@ -10418,17 +10450,17 @@
       </c>
       <c r="AQ48" s="59">
         <f t="shared" si="2"/>
-        <v>23.483999999999998</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49" s="58" t="str">
         <f>'données d''entrée'!C51</f>
-        <v>WS-TATV 12x12mm washable Tact Switch, THT version</v>
+        <v>Bornier enfichable, 3,5 mm, 2 Voies</v>
       </c>
       <c r="B49" s="74">
         <f>'données d''entrée'!E51</f>
-        <v>430456043736</v>
+        <v>691361100002</v>
       </c>
       <c r="C49" s="57" t="str">
         <f>'données d''entrée'!F51</f>
@@ -10436,10 +10468,10 @@
       </c>
       <c r="D49" s="57">
         <f>'données d''entrée'!H51</f>
-        <v>2065138</v>
+        <v>1841347</v>
       </c>
       <c r="E49" s="59">
-        <v>0.76</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F49" s="57">
         <f>'liste des cartes'!C$13*'données d''entrée'!J51</f>
@@ -10451,11 +10483,11 @@
       </c>
       <c r="H49" s="57">
         <f>'liste des cartes'!E$13*'données d''entrée'!L51</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I49" s="57">
         <f>'liste des cartes'!F$13*'données d''entrée'!M51</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" s="57">
         <f>'liste des cartes'!G$13*'données d''entrée'!N51</f>
@@ -10463,7 +10495,7 @@
       </c>
       <c r="K49" s="57">
         <f>'liste des cartes'!H$13*'données d''entrée'!O51</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L49" s="57">
         <f>'liste des cartes'!I$13*'données d''entrée'!P51</f>
@@ -10495,11 +10527,11 @@
       </c>
       <c r="S49" s="57">
         <f>'liste des cartes'!P$13*'données d''entrée'!W51</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T49" s="57">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="U49" s="57">
         <f>'liste des cartes'!C$8*'données d''entrée'!J51</f>
@@ -10511,11 +10543,11 @@
       </c>
       <c r="W49" s="57">
         <f>'liste des cartes'!E$8*'données d''entrée'!L51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="57">
         <f>'liste des cartes'!F$8*'données d''entrée'!M51</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="57">
         <f>'liste des cartes'!G$8*'données d''entrée'!N51</f>
@@ -10523,7 +10555,7 @@
       </c>
       <c r="Z49" s="57">
         <f>'liste des cartes'!H$8*'données d''entrée'!O51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA49" s="57">
         <f>'liste des cartes'!I$8*'données d''entrée'!P51</f>
@@ -10559,160 +10591,839 @@
       </c>
       <c r="AI49" s="57">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="57">
-        <v>2</v>
-      </c>
-      <c r="AK49" s="60">
-        <f>AS54/2</f>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AJ49" s="57"/>
+      <c r="AK49" s="62">
+        <f>AS58</f>
+        <v>10</v>
       </c>
       <c r="AL49" s="59">
         <f t="shared" si="1"/>
-        <v>4.5599999999999996</v>
+        <v>13.320000000000002</v>
       </c>
       <c r="AM49" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN49" s="57" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49" s="57">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP49" s="59">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="64">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="AQ49" s="59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.3239999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B50" s="75"/>
-      <c r="AL50" s="32">
-        <f>SUM(AL2:AL49)</f>
-        <v>1000.1028</v>
-      </c>
-      <c r="AM50" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="76"/>
-      <c r="AP50" s="79">
-        <f>SUM(AP2:AP49)</f>
-        <v>42.059400000000004</v>
-      </c>
-      <c r="AQ50" s="44">
-        <f>SUM(AQ2:AQ49)</f>
-        <v>235.01519999999999</v>
-      </c>
-      <c r="AR50" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS50" s="46">
-        <f>AL50</f>
-        <v>1000.1028</v>
-      </c>
-      <c r="AT50" s="47"/>
-      <c r="AU50" s="48"/>
+      <c r="A50" s="58" t="str">
+        <f>'données d''entrée'!C52</f>
+        <v>Fusible ATOF 30A</v>
+      </c>
+      <c r="B50" s="74" t="str">
+        <f>'données d''entrée'!E52</f>
+        <v>0287030.PXCN</v>
+      </c>
+      <c r="C50" s="57" t="str">
+        <f>'données d''entrée'!F52</f>
+        <v>Farnell</v>
+      </c>
+      <c r="D50" s="57">
+        <f>'données d''entrée'!H52</f>
+        <v>2137132</v>
+      </c>
+      <c r="E50" s="59">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F50" s="57">
+        <f>'liste des cartes'!C$13*'données d''entrée'!J52</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="57">
+        <f>'liste des cartes'!D$13*'données d''entrée'!K52</f>
+        <v>5</v>
+      </c>
+      <c r="H50" s="57">
+        <f>'liste des cartes'!E$13*'données d''entrée'!L52</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="57">
+        <f>'liste des cartes'!F$13*'données d''entrée'!M52</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="57">
+        <f>'liste des cartes'!G$13*'données d''entrée'!N52</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="57">
+        <f>'liste des cartes'!H$13*'données d''entrée'!O52</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="57">
+        <f>'liste des cartes'!I$13*'données d''entrée'!P52</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="57">
+        <f>'liste des cartes'!J$13*'données d''entrée'!Q52</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="57">
+        <f>'liste des cartes'!K$13*'données d''entrée'!R52</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="57">
+        <f>'liste des cartes'!L$13*'données d''entrée'!S52</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="57">
+        <f>'liste des cartes'!M$13*'données d''entrée'!T52</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="57">
+        <f>'liste des cartes'!N$13*'données d''entrée'!U52</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="57">
+        <f>'liste des cartes'!O$13*'données d''entrée'!V52</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="57">
+        <f>'liste des cartes'!P$13*'données d''entrée'!W52</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U50" s="57">
+        <f>'liste des cartes'!C$8*'données d''entrée'!J52</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="57">
+        <f>'liste des cartes'!D$8*'données d''entrée'!K52</f>
+        <v>1</v>
+      </c>
+      <c r="W50" s="57">
+        <f>'liste des cartes'!E$8*'données d''entrée'!L52</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="57">
+        <f>'liste des cartes'!F$8*'données d''entrée'!M52</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="57">
+        <f>'liste des cartes'!G$8*'données d''entrée'!N52</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="57">
+        <f>'liste des cartes'!H$8*'données d''entrée'!O52</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="57">
+        <f>'liste des cartes'!I$8*'données d''entrée'!P52</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="57">
+        <f>'liste des cartes'!J$8*'données d''entrée'!Q52</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="57">
+        <f>'liste des cartes'!K$8*'données d''entrée'!R52</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="57">
+        <f>'liste des cartes'!L$8*'données d''entrée'!S52</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="57">
+        <f>'liste des cartes'!M$8*'données d''entrée'!T52</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="57">
+        <f>'liste des cartes'!N$8*'données d''entrée'!U52</f>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="57">
+        <f>'liste des cartes'!O$8*'données d''entrée'!V52</f>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="57">
+        <f>'liste des cartes'!P$8*'données d''entrée'!W52</f>
+        <v>0</v>
+      </c>
+      <c r="AI50" s="57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="57">
+        <v>5</v>
+      </c>
+      <c r="AK50" s="57"/>
+      <c r="AL50" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM50" s="42">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AN50" s="57" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO50" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AP50" s="59">
+        <f t="shared" si="7"/>
+        <v>0.20039999999999999</v>
+      </c>
+      <c r="AQ50" s="59">
+        <f t="shared" si="2"/>
+        <v>2.004</v>
+      </c>
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B51" s="75"/>
-      <c r="AM51" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP51" s="80">
-        <f>AS51/10</f>
-        <v>4.68</v>
-      </c>
-      <c r="AS51" s="39">
-        <v>46.8</v>
-      </c>
-      <c r="AT51" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU51" s="50">
-        <f>AQ50+AS50+AS51</f>
-        <v>1281.9179999999999</v>
+      <c r="A51" s="58" t="str">
+        <f>'données d''entrée'!C53</f>
+        <v>Fusible ATOF 40A</v>
+      </c>
+      <c r="B51" s="74" t="str">
+        <f>'données d''entrée'!E53</f>
+        <v>0287040.PXCN</v>
+      </c>
+      <c r="C51" s="57" t="str">
+        <f>'données d''entrée'!F53</f>
+        <v>Farnell</v>
+      </c>
+      <c r="D51" s="57">
+        <f>'données d''entrée'!H53</f>
+        <v>2137134</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F51" s="57">
+        <f>'liste des cartes'!C$13*'données d''entrée'!J53</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="57">
+        <f>'liste des cartes'!D$13*'données d''entrée'!K53</f>
+        <v>5</v>
+      </c>
+      <c r="H51" s="57">
+        <f>'liste des cartes'!E$13*'données d''entrée'!L53</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="57">
+        <f>'liste des cartes'!F$13*'données d''entrée'!M53</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="57">
+        <f>'liste des cartes'!G$13*'données d''entrée'!N53</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="57">
+        <f>'liste des cartes'!H$13*'données d''entrée'!O53</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="57">
+        <f>'liste des cartes'!I$13*'données d''entrée'!P53</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="57">
+        <f>'liste des cartes'!J$13*'données d''entrée'!Q53</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="57">
+        <f>'liste des cartes'!K$13*'données d''entrée'!R53</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="57">
+        <f>'liste des cartes'!L$13*'données d''entrée'!S53</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="57">
+        <f>'liste des cartes'!M$13*'données d''entrée'!T53</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="57">
+        <f>'liste des cartes'!N$13*'données d''entrée'!U53</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="57">
+        <f>'liste des cartes'!O$13*'données d''entrée'!V53</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="57">
+        <f>'liste des cartes'!P$13*'données d''entrée'!W53</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U51" s="57">
+        <f>'liste des cartes'!C$8*'données d''entrée'!J53</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="57">
+        <f>'liste des cartes'!D$8*'données d''entrée'!K53</f>
+        <v>1</v>
+      </c>
+      <c r="W51" s="57">
+        <f>'liste des cartes'!E$8*'données d''entrée'!L53</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="57">
+        <f>'liste des cartes'!F$8*'données d''entrée'!M53</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="57">
+        <f>'liste des cartes'!G$8*'données d''entrée'!N53</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="57">
+        <f>'liste des cartes'!H$8*'données d''entrée'!O53</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="57">
+        <f>'liste des cartes'!I$8*'données d''entrée'!P53</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="57">
+        <f>'liste des cartes'!J$8*'données d''entrée'!Q53</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="57">
+        <f>'liste des cartes'!K$8*'données d''entrée'!R53</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="57">
+        <f>'liste des cartes'!L$8*'données d''entrée'!S53</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="57">
+        <f>'liste des cartes'!M$8*'données d''entrée'!T53</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="57">
+        <f>'liste des cartes'!N$8*'données d''entrée'!U53</f>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="57">
+        <f>'liste des cartes'!O$8*'données d''entrée'!V53</f>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="57">
+        <f>'liste des cartes'!P$8*'données d''entrée'!W53</f>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="57">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AJ51" s="57">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="57"/>
+      <c r="AL51" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM51" s="42">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AN51" s="57" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO51" s="57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AP51" s="59">
+        <f t="shared" si="7"/>
+        <v>0.2016</v>
+      </c>
+      <c r="AQ51" s="59">
+        <f t="shared" si="2"/>
+        <v>2.016</v>
       </c>
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="B52" s="75"/>
-      <c r="AM52" s="49"/>
-      <c r="AP52" s="40">
-        <f>AP50+AP51</f>
-        <v>46.739400000000003</v>
-      </c>
-      <c r="AU52" s="51"/>
+      <c r="A52" s="58" t="str">
+        <f>'données d''entrée'!C54</f>
+        <v>Patte à braser</v>
+      </c>
+      <c r="B52" s="74" t="str">
+        <f>'données d''entrée'!E54</f>
+        <v>SMD291AX10</v>
+      </c>
+      <c r="C52" s="57" t="str">
+        <f>'données d''entrée'!F54</f>
+        <v>Farnell</v>
+      </c>
+      <c r="D52" s="57">
+        <f>'données d''entrée'!H54</f>
+        <v>1850223</v>
+      </c>
+      <c r="E52" s="59">
+        <v>19.57</v>
+      </c>
+      <c r="F52" s="57">
+        <f>'liste des cartes'!C$13*'données d''entrée'!J54</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="57">
+        <f>'liste des cartes'!D$13*'données d''entrée'!K54</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="57">
+        <f>'liste des cartes'!E$13*'données d''entrée'!L54</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="57">
+        <f>'liste des cartes'!F$13*'données d''entrée'!M54</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="57">
+        <f>'liste des cartes'!G$13*'données d''entrée'!N54</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="57">
+        <f>'liste des cartes'!H$13*'données d''entrée'!O54</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="57">
+        <f>'liste des cartes'!I$13*'données d''entrée'!P54</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="57">
+        <f>'liste des cartes'!J$13*'données d''entrée'!Q54</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="57">
+        <f>'liste des cartes'!K$13*'données d''entrée'!R54</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="57">
+        <f>'liste des cartes'!L$13*'données d''entrée'!S54</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="57">
+        <f>'liste des cartes'!M$13*'données d''entrée'!T54</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="57">
+        <f>'liste des cartes'!N$13*'données d''entrée'!U54</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="57">
+        <f>'liste des cartes'!O$13*'données d''entrée'!V54</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="57">
+        <f>'liste des cartes'!P$13*'données d''entrée'!W54</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U52" s="57">
+        <f>'liste des cartes'!C$8*'données d''entrée'!J54</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="57">
+        <f>'liste des cartes'!D$8*'données d''entrée'!K54</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="57">
+        <f>'liste des cartes'!E$8*'données d''entrée'!L54</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="57">
+        <f>'liste des cartes'!F$8*'données d''entrée'!M54</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="57">
+        <f>'liste des cartes'!G$8*'données d''entrée'!N54</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="57">
+        <f>'liste des cartes'!H$8*'données d''entrée'!O54</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="57">
+        <f>'liste des cartes'!I$8*'données d''entrée'!P54</f>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="57">
+        <f>'liste des cartes'!J$8*'données d''entrée'!Q54</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="57">
+        <f>'liste des cartes'!K$8*'données d''entrée'!R54</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="57">
+        <f>'liste des cartes'!L$8*'données d''entrée'!S54</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="57">
+        <f>'liste des cartes'!M$8*'données d''entrée'!T54</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="57">
+        <f>'liste des cartes'!N$8*'données d''entrée'!U54</f>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="57">
+        <f>'liste des cartes'!O$8*'données d''entrée'!V54</f>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="57">
+        <f>'liste des cartes'!P$8*'données d''entrée'!W54</f>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AN52" s="57" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP52" s="59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="59">
+        <f t="shared" si="2"/>
+        <v>23.483999999999998</v>
+      </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="AM53" s="49"/>
-      <c r="AU53" s="51"/>
+    <row r="53" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="58" t="str">
+        <f>'données d''entrée'!C55</f>
+        <v>WS-TATV 12x12mm washable Tact Switch, THT version</v>
+      </c>
+      <c r="B53" s="74">
+        <f>'données d''entrée'!E55</f>
+        <v>430456043736</v>
+      </c>
+      <c r="C53" s="57" t="str">
+        <f>'données d''entrée'!F55</f>
+        <v>Farnell</v>
+      </c>
+      <c r="D53" s="57">
+        <f>'données d''entrée'!H55</f>
+        <v>2065138</v>
+      </c>
+      <c r="E53" s="59">
+        <v>0.76</v>
+      </c>
+      <c r="F53" s="57">
+        <f>'liste des cartes'!C$13*'données d''entrée'!J55</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="57">
+        <f>'liste des cartes'!D$13*'données d''entrée'!K55</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="57">
+        <f>'liste des cartes'!E$13*'données d''entrée'!L55</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="57">
+        <f>'liste des cartes'!F$13*'données d''entrée'!M55</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="57">
+        <f>'liste des cartes'!G$13*'données d''entrée'!N55</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="57">
+        <f>'liste des cartes'!H$13*'données d''entrée'!O55</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="57">
+        <f>'liste des cartes'!I$13*'données d''entrée'!P55</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="57">
+        <f>'liste des cartes'!J$13*'données d''entrée'!Q55</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="57">
+        <f>'liste des cartes'!K$13*'données d''entrée'!R55</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="57">
+        <f>'liste des cartes'!L$13*'données d''entrée'!S55</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="57">
+        <f>'liste des cartes'!M$13*'données d''entrée'!T55</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="57">
+        <f>'liste des cartes'!N$13*'données d''entrée'!U55</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="57">
+        <f>'liste des cartes'!O$13*'données d''entrée'!V55</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="57">
+        <f>'liste des cartes'!P$13*'données d''entrée'!W55</f>
+        <v>3</v>
+      </c>
+      <c r="T53" s="57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U53" s="57">
+        <f>'liste des cartes'!C$8*'données d''entrée'!J55</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="57">
+        <f>'liste des cartes'!D$8*'données d''entrée'!K55</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="57">
+        <f>'liste des cartes'!E$8*'données d''entrée'!L55</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="57">
+        <f>'liste des cartes'!F$8*'données d''entrée'!M55</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="57">
+        <f>'liste des cartes'!G$8*'données d''entrée'!N55</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="57">
+        <f>'liste des cartes'!H$8*'données d''entrée'!O55</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="57">
+        <f>'liste des cartes'!I$8*'données d''entrée'!P55</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="57">
+        <f>'liste des cartes'!J$8*'données d''entrée'!Q55</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="57">
+        <f>'liste des cartes'!K$8*'données d''entrée'!R55</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="57">
+        <f>'liste des cartes'!L$8*'données d''entrée'!S55</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="57">
+        <f>'liste des cartes'!M$8*'données d''entrée'!T55</f>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="57">
+        <f>'liste des cartes'!N$8*'données d''entrée'!U55</f>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="57">
+        <f>'liste des cartes'!O$8*'données d''entrée'!V55</f>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="57">
+        <f>'liste des cartes'!P$8*'données d''entrée'!W55</f>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="57">
+        <v>2</v>
+      </c>
+      <c r="AK53" s="60">
+        <f>AS58/2</f>
+        <v>5</v>
+      </c>
+      <c r="AL53" s="59">
+        <f t="shared" si="1"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AM53" s="42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN53" s="57" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO53" s="57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP53" s="59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="AM54" s="49"/>
-      <c r="AR54" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS54" s="65">
-        <v>10</v>
-      </c>
-      <c r="AU54" s="51"/>
+      <c r="B54" s="75"/>
+      <c r="AL54" s="32">
+        <f>SUM(AL2:AL53)</f>
+        <v>1000.1028</v>
+      </c>
+      <c r="AM54" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN54" s="76"/>
+      <c r="AO54" s="76"/>
+      <c r="AP54" s="79">
+        <f>SUM(AP2:AP53)</f>
+        <v>42.059400000000004</v>
+      </c>
+      <c r="AQ54" s="44">
+        <f>SUM(AQ2:AQ53)</f>
+        <v>243.61919999999998</v>
+      </c>
+      <c r="AR54" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS54" s="46">
+        <f>AL54</f>
+        <v>1000.1028</v>
+      </c>
+      <c r="AT54" s="47"/>
+      <c r="AU54" s="48"/>
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="AM55" s="49"/>
-      <c r="AR55" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS55" s="82">
-        <f>AL21+AL22+AL26+AL28++AL42+AL43+AL44+AL45</f>
-        <v>87.54</v>
-      </c>
-      <c r="AU55" s="51"/>
+      <c r="B55" s="75"/>
+      <c r="AM55" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP55" s="80">
+        <f>AS55/10</f>
+        <v>4.68</v>
+      </c>
+      <c r="AS55" s="39">
+        <v>46.8</v>
+      </c>
+      <c r="AT55" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU55" s="50">
+        <f>AQ54+AS54+AS55</f>
+        <v>1290.5219999999999</v>
+      </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B56" s="75"/>
       <c r="AM56" s="49"/>
-      <c r="AR56" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS56" s="83">
-        <f>AL49+AL20+AL17+AL10+AL6+AL7+AL3+AL40</f>
-        <v>43.17</v>
+      <c r="AP56" s="40">
+        <f>AP54+AP55</f>
+        <v>46.739400000000003</v>
       </c>
       <c r="AU56" s="51"/>
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AM57" s="49"/>
-      <c r="AR57" s="67" t="s">
+      <c r="AU57" s="51"/>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AM58" s="49"/>
+      <c r="AR58" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS58" s="65">
+        <v>10</v>
+      </c>
+      <c r="AU58" s="51"/>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AM59" s="49"/>
+      <c r="AR59" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS59" s="82">
+        <f>AL21+AL22+AL26+AL28++AL46+AL47+AL48+AL49</f>
+        <v>87.54</v>
+      </c>
+      <c r="AU59" s="51"/>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AM60" s="49"/>
+      <c r="AR60" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS60" s="83">
+        <f>AL53+AL20+AL17+AL10+AL6+AL7+AL3+AL40</f>
+        <v>43.17</v>
+      </c>
+      <c r="AU60" s="51"/>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AJ61" s="32">
+        <f>SUM(AQ42:AQ45)</f>
+        <v>8.6039999999999992</v>
+      </c>
+      <c r="AM61" s="49"/>
+      <c r="AR61" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="AS57" s="84">
+      <c r="AS61" s="84">
         <f>AL14+AL15+AL16</f>
         <v>864.82799999999986</v>
       </c>
-      <c r="AU57" s="51"/>
+      <c r="AU61" s="51"/>
     </row>
-    <row r="58" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AM58" s="52"/>
-      <c r="AN58" s="54"/>
-      <c r="AO58" s="54"/>
-      <c r="AP58" s="53"/>
-      <c r="AQ58" s="53"/>
-      <c r="AR58" s="68" t="s">
+    <row r="62" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="54"/>
+      <c r="AO62" s="54"/>
+      <c r="AP62" s="53"/>
+      <c r="AQ62" s="53"/>
+      <c r="AR62" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="AS58" s="85">
+      <c r="AS62" s="85">
         <f>AL31</f>
         <v>0</v>
       </c>
-      <c r="AT58" s="54"/>
-      <c r="AU58" s="55"/>
+      <c r="AT62" s="54"/>
+      <c r="AU62" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10741,41 +11452,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91" t="s">
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
       <c r="P1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="95"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="97"/>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
@@ -11205,10 +11916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11239,72 +11950,72 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="96" t="s">
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
       <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96" t="s">
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96" t="s">
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
       <c r="W2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="91"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
@@ -11371,7 +12082,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="91"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="19" t="str">
         <f>'[1]BOM Report'!$D14</f>
         <v>C1, C23, C29, C30, C31, C35, C36, C37, C41, C42</v>
@@ -11430,7 +12141,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="19" t="str">
         <f>'[1]BOM Report'!$D15</f>
         <v>C2, C8, C12, C16</v>
@@ -11485,7 +12196,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="19" t="str">
         <f>'[1]BOM Report'!$D16</f>
         <v>C3, C26, C27, C28</v>
@@ -11536,7 +12247,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="19" t="str">
         <f>'[1]BOM Report'!$D17</f>
         <v>C4, C11, C15, C19, C21, C22, C32, C33, C34, C38, C39, C40, C43, C44, C45, C46, C47, C48, C49, C50</v>
@@ -11601,7 +12312,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="19" t="str">
         <f>'[1]BOM Report'!$D18</f>
         <v>C5</v>
@@ -11650,7 +12361,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="19" t="str">
         <f>'[1]BOM Report'!$D19</f>
         <v>C6, C7, C20</v>
@@ -11701,7 +12412,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="19" t="str">
         <f>'[1]BOM Report'!$D20</f>
         <v>C9, C10, C13, C14, C17, C18</v>
@@ -11753,7 +12464,7 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="19" t="str">
         <f>'[1]BOM Report'!$D21</f>
         <v>C24, C25</v>
@@ -11802,7 +12513,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="19" t="str">
         <f>'[1]BOM Report'!$D22</f>
         <v>D1, D3, D5, D7, D10, D11</v>
@@ -11860,7 +12571,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="19" t="str">
         <f>'[1]BOM Report'!$D23</f>
         <v>D2, D4, D6</v>
@@ -11915,7 +12626,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="19" t="str">
         <f>'[1]BOM Report'!$D24</f>
         <v>D8, D9</v>
@@ -11966,7 +12677,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="19" t="str">
         <f>'[1]BOM Report'!$D25</f>
         <v>D12</v>
@@ -12017,7 +12728,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="19" t="str">
         <f>'[1]BOM Report'!$D26</f>
         <v>DC1</v>
@@ -12068,7 +12779,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="19" t="str">
         <f>'[1]BOM Report'!$D27</f>
         <v>DC2</v>
@@ -12119,7 +12830,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="19" t="str">
         <f>'[1]BOM Report'!$D28</f>
         <v>DC3</v>
@@ -12170,7 +12881,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="19" t="str">
         <f>'[1]BOM Report'!$D29</f>
         <v>DT2</v>
@@ -12220,7 +12931,7 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="19" t="str">
         <f>'[1]BOM Report'!$D30</f>
         <v>F1</v>
@@ -12271,7 +12982,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="19" t="str">
         <f>'[1]BOM Report'!$D31</f>
         <v>F2</v>
@@ -12322,7 +13033,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="19" t="str">
         <f>'[1]BOM Report'!$D32</f>
         <v>FB1, FB2, FB3, FB4, FB5, FB6, FB7, FB8, FB9, FB10</v>
@@ -12381,7 +13092,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="25" t="str">
         <f>'[1]BOM Report'!$D33</f>
         <v>J1, J2</v>
@@ -12432,7 +13143,7 @@
       <c r="W23" s="26"/>
     </row>
     <row r="24" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="25" t="str">
         <f>'[1]BOM Report'!$D34</f>
         <v>J3, J26</v>
@@ -12489,7 +13200,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="25" t="str">
         <f>'[1]BOM Report'!$D35</f>
         <v>J4, J9, J11, J17, J18, J25, J28</v>
@@ -12547,7 +13258,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="25" t="str">
         <f>'[1]BOM Report'!$D36</f>
         <v>J5, J6, J7</v>
@@ -12597,7 +13308,7 @@
       <c r="W26" s="26"/>
     </row>
     <row r="27" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="25" t="str">
         <f>'[1]BOM Report'!$D37</f>
         <v>J8, J10, J12, J13, J14</v>
@@ -12649,7 +13360,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="25" t="str">
         <f>'[1]BOM Report'!$D38</f>
         <v>J15, J16, J27</v>
@@ -12704,7 +13415,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="25" t="str">
         <f>'[1]BOM Report'!$D39</f>
         <v>J19, J20, J21, J22, J23, J24, J29, J30</v>
@@ -12760,7 +13471,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="91"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="25" t="str">
         <f>'[1]BOM Report'!$D40</f>
         <v>J31, J32, J33, J34, J35</v>
@@ -12820,7 +13531,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="91"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="19" t="str">
         <f>'[1]BOM Report'!$D41</f>
         <v>Q1</v>
@@ -12871,7 +13582,7 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="19" t="str">
         <f>'[1]BOM Report'!$D42</f>
         <v>Q2, Q3, Q4, Q5, Q6, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17</v>
@@ -12932,7 +13643,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="19" t="str">
         <f>'[1]BOM Report'!$D43</f>
         <v>Q7, Q8</v>
@@ -12982,7 +13693,7 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="91"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="19" t="str">
         <f>'[1]BOM Report'!$D44</f>
         <v>R1, R3, R4, R5, R8, R13, R14, R15, R16, R20, R22, R23, R25, R26, R27, R28, R37, R38, R39, R40, R45, R47, R48, R51, R53, R54, R55, R56, R57, R58, R59, R60, R61, R62, R63, R64, R65, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R76, R77, R78, R79, R80, R81, R88, R89</v>
@@ -13052,7 +13763,7 @@
       <c r="X34" s="7"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="91"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="19" t="str">
         <f>'[1]BOM Report'!$D45</f>
         <v>R2</v>
@@ -13103,7 +13814,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="19" t="str">
         <f>'[1]BOM Report'!$D46</f>
         <v>R6, R18, R19</v>
@@ -13156,7 +13867,7 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="91"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="19" t="str">
         <f>'[1]BOM Report'!$D47</f>
         <v>R7, R9, R10, R11, R12, R29, R31, R33, R34, R35, R36, R41, R42, R43, R44, R46, R52, R21, R24, R85, R86</v>
@@ -13217,7 +13928,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="91"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="19" t="str">
         <f>'[1]BOM Report'!$D48</f>
         <v>R17, R49, R50</v>
@@ -13270,7 +13981,7 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="91"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="19" t="str">
         <f>'[1]BOM Report'!$D49</f>
         <v>R30, R32</v>
@@ -13321,7 +14032,7 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="91"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="19" t="str">
         <f>'[1]BOM Report'!$D50</f>
         <v>R82, R83, R84, R87, R90</v>
@@ -13374,7 +14085,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="19" t="str">
         <f>'[1]BOM Report'!$D51</f>
         <v>S1, S2, S3, S5</v>
@@ -13425,7 +14136,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="19" t="str">
         <f>'[1]BOM Report'!$D52</f>
         <v>S4</v>
@@ -13474,10 +14185,10 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="98"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="19" t="s">
         <v>45</v>
       </c>
@@ -13516,130 +14227,113 @@
       <c r="W43" s="9"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="97"/>
-      <c r="B44" s="99"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="19" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="20">
-        <v>690157000672</v>
+        <v>103</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="21">
-        <v>1641882</v>
+        <v>672907</v>
       </c>
       <c r="H44" s="21">
         <f>G44</f>
-        <v>1641882</v>
+        <v>672907</v>
       </c>
       <c r="I44" s="21"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9">
-        <f>K24</f>
-        <v>1</v>
-      </c>
+      <c r="J44" s="9">
+        <v>4</v>
+      </c>
+      <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="9">
-        <f>O24</f>
-        <v>1</v>
-      </c>
+      <c r="O44" s="9"/>
       <c r="P44" s="9"/>
-      <c r="Q44" s="9">
-        <f>Q24</f>
-        <v>-1</v>
-      </c>
+      <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
-      <c r="W44" s="9">
-        <f>W24</f>
-        <v>1</v>
-      </c>
+      <c r="W44" s="9"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
-      <c r="B45" s="99"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="19" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="20">
-        <v>690157000872</v>
+        <v>103</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G45" s="21">
-        <v>1641883</v>
+        <v>2063718</v>
       </c>
       <c r="H45" s="21">
         <f>G45</f>
-        <v>1641883</v>
+        <v>2063718</v>
       </c>
       <c r="I45" s="21"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="9">
+        <f>6*J44</f>
+        <v>24</v>
+      </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
-      <c r="Q45" s="9">
-        <f>Q28</f>
-        <v>1</v>
-      </c>
-      <c r="R45" s="9">
-        <f>R28</f>
-        <v>1</v>
-      </c>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
-      <c r="W45" s="9">
-        <f>W28</f>
-        <v>1</v>
-      </c>
+      <c r="W45" s="9"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="97"/>
-      <c r="B46" s="99"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="19" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="20">
-        <v>691351500002</v>
+        <v>103</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G46" s="21">
-        <v>1641952</v>
+        <v>151867</v>
       </c>
       <c r="H46" s="21">
-        <f t="shared" ref="H46:H51" si="1">G46</f>
-        <v>1641952</v>
+        <f>G46</f>
+        <v>151867</v>
       </c>
       <c r="I46" s="21"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9">
-        <f>K23</f>
-        <v>2</v>
-      </c>
+      <c r="J46" s="9">
+        <v>4</v>
+      </c>
+      <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -13654,47 +14348,38 @@
       <c r="W46" s="9"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="93"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="100"/>
       <c r="C47" s="19" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="20">
-        <v>691361100002</v>
+        <v>103</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="21">
-        <v>1841347</v>
+        <v>1462545</v>
       </c>
       <c r="H47" s="21">
-        <f t="shared" si="1"/>
-        <v>1841347</v>
+        <f>G47</f>
+        <v>1462545</v>
       </c>
       <c r="I47" s="21"/>
-      <c r="J47" s="9"/>
+      <c r="J47" s="9">
+        <f>4*J46</f>
+        <v>16</v>
+      </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="9">
-        <f t="shared" ref="L47:P47" si="2">L30</f>
-        <v>1</v>
-      </c>
-      <c r="M47" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="9">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P47" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
@@ -13704,116 +14389,130 @@
       <c r="W47" s="9"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="98"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="E48" s="20">
+        <v>690157000672</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="21">
-        <v>2137132</v>
+        <v>1641882</v>
       </c>
       <c r="H48" s="21">
-        <f t="shared" si="1"/>
-        <v>2137132</v>
+        <f>G48</f>
+        <v>1641882</v>
       </c>
       <c r="I48" s="21"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9">
-        <f>K21</f>
+        <f>K24</f>
         <v>1</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="O48" s="9">
+        <f>O24</f>
+        <v>1</v>
+      </c>
       <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
+      <c r="Q48" s="9">
+        <f>Q24</f>
+        <v>-1</v>
+      </c>
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
+      <c r="W48" s="9">
+        <f>W24</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="97"/>
-      <c r="B49" s="99"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="19" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="E49" s="20">
+        <v>690157000872</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G49" s="21">
-        <v>2137134</v>
+        <v>1641883</v>
       </c>
       <c r="H49" s="21">
-        <f t="shared" si="1"/>
-        <v>2137134</v>
+        <f>G49</f>
+        <v>1641883</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="9">
-        <f>K21</f>
-        <v>1</v>
-      </c>
+      <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
+      <c r="Q49" s="9">
+        <f>Q28</f>
+        <v>1</v>
+      </c>
+      <c r="R49" s="9">
+        <f>R28</f>
+        <v>1</v>
+      </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="W49" s="9">
+        <f>W28</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="93"/>
+      <c r="A50" s="98"/>
       <c r="B50" s="100"/>
       <c r="C50" s="19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="E50" s="20">
+        <v>691351500002</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G50" s="21">
-        <v>1850223</v>
+        <v>1641952</v>
       </c>
       <c r="H50" s="21">
-        <f t="shared" si="1"/>
-        <v>1850223</v>
+        <f t="shared" ref="H50:H55" si="1">G50</f>
+        <v>1641952</v>
       </c>
       <c r="I50" s="21"/>
-      <c r="J50" s="9">
-        <v>1</v>
-      </c>
-      <c r="K50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9">
+        <f>K23</f>
+        <v>2</v>
+      </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -13828,60 +14527,85 @@
       <c r="W50" s="9"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="19"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="19" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="20">
-        <v>430456043736</v>
+        <v>691361100002</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>36</v>
       </c>
       <c r="G51" s="21">
-        <v>2065138</v>
+        <v>1841347</v>
       </c>
       <c r="H51" s="21">
         <f t="shared" si="1"/>
-        <v>2065138</v>
+        <v>1841347</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
+      <c r="L51" s="9">
+        <f t="shared" ref="L51:P51" si="2">L30</f>
+        <v>1</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="O51" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P51" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
-      <c r="W51" s="9">
-        <f>W42</f>
-        <v>1</v>
-      </c>
+      <c r="W51" s="9"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="A52" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="99"/>
+      <c r="C52" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="21">
+        <v>2137132</v>
+      </c>
+      <c r="H52" s="21">
+        <f t="shared" si="1"/>
+        <v>2137132</v>
+      </c>
       <c r="I52" s="21"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="K52" s="9">
+        <f>K21</f>
+        <v>1</v>
+      </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -13896,17 +14620,33 @@
       <c r="W52" s="9"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="21">
+        <v>2137134</v>
+      </c>
+      <c r="H53" s="21">
+        <f t="shared" si="1"/>
+        <v>2137134</v>
+      </c>
       <c r="I53" s="21"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="K53" s="9">
+        <f>K21</f>
+        <v>1</v>
+      </c>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -13920,18 +14660,151 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
     </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="95"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="21">
+        <v>1850223</v>
+      </c>
+      <c r="H54" s="21">
+        <f t="shared" si="1"/>
+        <v>1850223</v>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="J54" s="9">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="20">
+        <v>430456043736</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="21">
+        <v>2065138</v>
+      </c>
+      <c r="H55" s="21">
+        <f t="shared" si="1"/>
+        <v>2065138</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9">
+        <f>W42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" s="23"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" s="23"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="J1:W1"/>
     <mergeCell ref="A2:A42"/>
     <mergeCell ref="B1:I2"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13944,7 +14817,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13982,12 +14855,12 @@
         <v>691311500102</v>
       </c>
       <c r="C3" s="15">
-        <f>VLOOKUP(B3,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(B3,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D3" s="15">
-        <f>VLOOKUP(B3,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B3,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>25.8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -13995,16 +14868,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="71">
-        <f>'BOM de commande'!B45</f>
+        <f>'BOM de commande'!B49</f>
         <v>691361100002</v>
       </c>
       <c r="C4" s="15">
-        <f>VLOOKUP(B4,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B4,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D4" s="15">
-        <f>VLOOKUP(B4,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B4,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>13.320000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -14016,12 +14889,12 @@
         <v>690367280876</v>
       </c>
       <c r="C5" s="15">
-        <f>VLOOKUP(B5,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B5,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D5" s="15">
-        <f>VLOOKUP(B5,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B5,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>11.351999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -14029,16 +14902,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="71">
-        <f>'BOM de commande'!B43</f>
+        <f>'BOM de commande'!B47</f>
         <v>690157000872</v>
       </c>
       <c r="C6" s="15">
-        <f>VLOOKUP(B6,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B6,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D6" s="15">
-        <f>VLOOKUP(B6,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B6,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -14050,12 +14923,12 @@
         <v>690367280676</v>
       </c>
       <c r="C7" s="15">
-        <f>VLOOKUP(B7,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B7,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D7" s="15">
-        <f>VLOOKUP(B7,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B7,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14063,16 +14936,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="71">
-        <f>'BOM de commande'!B44</f>
+        <f>'BOM de commande'!B48</f>
         <v>691351500002</v>
       </c>
       <c r="C8" s="15">
-        <f>VLOOKUP(B8,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(B8,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D8" s="15">
-        <f>VLOOKUP(B8,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B8,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>9.3600000000000012</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -14080,16 +14953,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="71">
-        <f>'BOM de commande'!B42</f>
+        <f>'BOM de commande'!B46</f>
         <v>690157000672</v>
       </c>
       <c r="C9" s="15">
-        <f>VLOOKUP(B9,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B9,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D9" s="15">
-        <f>VLOOKUP(B9,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B9,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>5.0279999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -14101,12 +14974,12 @@
         <v>691321100002</v>
       </c>
       <c r="C10" s="15">
-        <f>VLOOKUP(B10,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B10,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D10" s="15">
-        <f>VLOOKUP(B10,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B10,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>3.24</v>
       </c>
     </row>
   </sheetData>
@@ -14131,7 +15004,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14169,12 +15042,12 @@
         <v>860010483029</v>
       </c>
       <c r="C3" s="15">
-        <f>VLOOKUP(B3,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B3,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="D3" s="15">
-        <f>VLOOKUP(B3,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B3,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>21.9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -14182,16 +15055,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="71">
-        <f>'BOM de commande'!B49</f>
+        <f>'BOM de commande'!B53</f>
         <v>430456043736</v>
       </c>
       <c r="C4" s="15">
-        <f>VLOOKUP(B4,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B4,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="D4" s="15">
-        <f>VLOOKUP(B4,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B4,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -14203,12 +15076,12 @@
         <v>860010575012</v>
       </c>
       <c r="C5" s="15">
-        <f>VLOOKUP(B5,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(B5,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D5" s="15">
-        <f>VLOOKUP(B5,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B5,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>4.0919999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -14220,12 +15093,12 @@
         <v>824540241</v>
       </c>
       <c r="C6" s="15">
-        <f>VLOOKUP(B6,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B6,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="D6" s="15">
-        <f>VLOOKUP(B6,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B6,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>3.294</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -14237,12 +15110,12 @@
         <v>860010574011</v>
       </c>
       <c r="C7" s="15">
-        <f>VLOOKUP(B7,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B7,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D7" s="15">
-        <f>VLOOKUP(B7,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B7,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>2.7840000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14254,12 +15127,12 @@
         <v>430456085736</v>
       </c>
       <c r="C8" s="15">
-        <f>VLOOKUP(B8,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B8,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="D8" s="15">
-        <f>VLOOKUP(B8,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B8,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>2.6999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -14271,12 +15144,12 @@
         <v>742792624</v>
       </c>
       <c r="C9" s="15">
-        <f>VLOOKUP(B9,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B9,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D9" s="15">
-        <f>VLOOKUP(B9,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(B9,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>2.2440000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -14288,12 +15161,12 @@
         <v>150060GS75000</v>
       </c>
       <c r="C10" s="15">
-        <f>VLOOKUP(B10,'BOM de commande'!B:AL,21,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B10,'BOM de commande'!B:AL,36,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="D10" s="15">
-        <f>VLOOKUP(B10,'BOM de commande'!B:AL,22,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(B10,'BOM de commande'!B:AL,37,FALSE)</f>
+        <v>1.5960000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/2-PROJ/14-Carte_Alim_2019/Project Outputs for Carte_Alim_2019/BOM/BOM_multi-carte.xlsx
+++ b/2-PROJ/14-Carte_Alim_2019/Project Outputs for Carte_Alim_2019/BOM/BOM_multi-carte.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>designator</t>
   </si>
@@ -439,9 +439,6 @@
     <t>autre ref prise chez farnell (cf plus bas)</t>
   </si>
   <si>
-    <t>voir si on a pas du stock car très cher (sinon dispo sur Digikey)</t>
-  </si>
-  <si>
     <t>WS-TATV 12x12mm washable Tact Switch, THT version</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
   </si>
   <si>
     <t>soit</t>
-  </si>
-  <si>
-    <t>et le prix du PCB</t>
   </si>
   <si>
     <t>total valeur Wurth (Roger chenal)</t>
@@ -538,9 +532,6 @@
     <t>part to order</t>
   </si>
   <si>
-    <t>dispo farnell insuffisante</t>
-  </si>
-  <si>
     <t>Micro-Fit 3.0, Embase, 6 Voies</t>
   </si>
   <si>
@@ -567,6 +558,12 @@
   <si>
     <t>39-00-0038</t>
   </si>
+  <si>
+    <t>stock de Goldo: 18</t>
+  </si>
+  <si>
+    <t>et le prix du PCB (pcs)</t>
+  </si>
 </sst>
 </file>
 
@@ -577,7 +574,7 @@
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,15 +639,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,11 +687,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -892,11 +877,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1153,9 +1137,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,6 +1164,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,12 +1179,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2339,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM43" sqref="AM43"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,43 +2363,43 @@
       <c r="E1" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="92"/>
+      <c r="F1" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="91"/>
       <c r="T1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="92"/>
+      <c r="U1" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="91"/>
       <c r="AI1" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AJ1" s="77" t="s">
         <v>56</v>
@@ -2428,19 +2408,19 @@
         <v>57</v>
       </c>
       <c r="AL1" s="77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM1" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AN1" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO1" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="77" t="s">
-        <v>99</v>
-      </c>
       <c r="AP1" s="78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AQ1" s="56" t="s">
         <v>60</v>
@@ -5171,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.3">
@@ -5654,7 +5634,9 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AJ20" s="57"/>
+      <c r="AJ20" s="57">
+        <v>6</v>
+      </c>
       <c r="AK20" s="60">
         <f>AS58</f>
         <v>10</v>
@@ -5665,7 +5647,7 @@
       </c>
       <c r="AM20" s="42">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AN20" s="57" t="b">
         <f t="shared" si="5"/>
@@ -5681,7 +5663,7 @@
       </c>
       <c r="AQ20" s="59">
         <f t="shared" si="2"/>
-        <v>5.3855999999999993</v>
+        <v>6.7320000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.3">
@@ -6344,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="AJ24" s="57">
-        <v>88</v>
+        <v>-12</v>
       </c>
       <c r="AK24" s="57"/>
       <c r="AL24" s="59">
@@ -6353,7 +6335,7 @@
       </c>
       <c r="AM24" s="42">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="57" t="b">
         <f t="shared" si="5"/>
@@ -6369,10 +6351,10 @@
       </c>
       <c r="AQ24" s="59">
         <f t="shared" si="2"/>
-        <v>40.08</v>
-      </c>
-      <c r="AR24" s="88" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="35" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.3">
@@ -7566,7 +7548,7 @@
         <v>31.007999999999999</v>
       </c>
       <c r="AR31" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.3">
@@ -9090,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="AR40" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.3">
@@ -9408,7 +9390,7 @@
         <f t="shared" ref="AL42:AL45" si="10">E42*AK42*1.2</f>
         <v>0</v>
       </c>
-      <c r="AM42" s="89">
+      <c r="AM42" s="88">
         <f t="shared" ref="AM42:AM45" si="11">MAX(T42+AJ42-AK42,0)</f>
         <v>10</v>
       </c>
@@ -9577,7 +9559,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM43" s="89">
+      <c r="AM43" s="88">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
@@ -9746,7 +9728,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM44" s="89">
+      <c r="AM44" s="88">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
@@ -9915,7 +9897,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AM45" s="89">
+      <c r="AM45" s="88">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
@@ -10248,39 +10230,33 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AJ47" s="57">
-        <v>2</v>
-      </c>
+      <c r="AJ47" s="57"/>
       <c r="AK47" s="62">
-        <f>AS58</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL47" s="59">
         <f t="shared" si="1"/>
-        <v>9.7200000000000006</v>
+        <v>12.636000000000001</v>
       </c>
       <c r="AM47" s="42">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="57" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="57">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="59">
         <f t="shared" si="7"/>
-        <v>1.944</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="59">
         <f t="shared" si="2"/>
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="AR47" s="88" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.3">
@@ -11304,27 +11280,27 @@
       <c r="B54" s="75"/>
       <c r="AL54" s="32">
         <f>SUM(AL2:AL53)</f>
-        <v>1000.1028</v>
+        <v>1003.0187999999999</v>
       </c>
       <c r="AM54" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN54" s="76"/>
       <c r="AO54" s="76"/>
       <c r="AP54" s="79">
         <f>SUM(AP2:AP53)</f>
-        <v>42.059400000000004</v>
+        <v>40.115400000000001</v>
       </c>
       <c r="AQ54" s="44">
         <f>SUM(AQ2:AQ53)</f>
-        <v>243.61919999999998</v>
+        <v>200.02559999999997</v>
       </c>
       <c r="AR54" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AS54" s="46">
         <f>AL54</f>
-        <v>1000.1028</v>
+        <v>1003.0187999999999</v>
       </c>
       <c r="AT54" s="47"/>
       <c r="AU54" s="48"/>
@@ -11332,7 +11308,7 @@
     <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B55" s="75"/>
       <c r="AM55" s="81" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AP55" s="80">
         <f>AS55/10</f>
@@ -11342,11 +11318,11 @@
         <v>46.8</v>
       </c>
       <c r="AT55" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU55" s="50">
         <f>AQ54+AS54+AS55</f>
-        <v>1290.5219999999999</v>
+        <v>1249.8444</v>
       </c>
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.3">
@@ -11354,7 +11330,7 @@
       <c r="AM56" s="49"/>
       <c r="AP56" s="40">
         <f>AP54+AP55</f>
-        <v>46.739400000000003</v>
+        <v>44.795400000000001</v>
       </c>
       <c r="AU56" s="51"/>
     </row>
@@ -11365,7 +11341,7 @@
     <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AM58" s="49"/>
       <c r="AR58" s="65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS58" s="65">
         <v>10</v>
@@ -11375,18 +11351,18 @@
     <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AM59" s="49"/>
       <c r="AR59" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AS59" s="82">
         <f>AL21+AL22+AL26+AL28++AL46+AL47+AL48+AL49</f>
-        <v>87.54</v>
+        <v>90.456000000000003</v>
       </c>
       <c r="AU59" s="51"/>
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="AM60" s="49"/>
       <c r="AR60" s="66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AS60" s="83">
         <f>AL53+AL20+AL17+AL10+AL6+AL7+AL3+AL40</f>
@@ -11401,7 +11377,7 @@
       </c>
       <c r="AM61" s="49"/>
       <c r="AR61" s="67" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AS61" s="84">
         <f>AL14+AL15+AL16</f>
@@ -11416,7 +11392,7 @@
       <c r="AP62" s="53"/>
       <c r="AQ62" s="53"/>
       <c r="AR62" s="68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AS62" s="85">
         <f>AL31</f>
@@ -11452,41 +11428,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93" t="s">
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
       <c r="P1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="97"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
@@ -11950,72 +11926,72 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="102" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
       <c r="J2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
       <c r="W2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
@@ -12035,7 +12011,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>7</v>
@@ -12082,7 +12058,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="19" t="str">
         <f>'[1]BOM Report'!$D14</f>
         <v>C1, C23, C29, C30, C31, C35, C36, C37, C41, C42</v>
@@ -12141,7 +12117,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="19" t="str">
         <f>'[1]BOM Report'!$D15</f>
         <v>C2, C8, C12, C16</v>
@@ -12196,7 +12172,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="19" t="str">
         <f>'[1]BOM Report'!$D16</f>
         <v>C3, C26, C27, C28</v>
@@ -12247,7 +12223,7 @@
       <c r="W6" s="9"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="19" t="str">
         <f>'[1]BOM Report'!$D17</f>
         <v>C4, C11, C15, C19, C21, C22, C32, C33, C34, C38, C39, C40, C43, C44, C45, C46, C47, C48, C49, C50</v>
@@ -12312,7 +12288,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="19" t="str">
         <f>'[1]BOM Report'!$D18</f>
         <v>C5</v>
@@ -12361,7 +12337,7 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="19" t="str">
         <f>'[1]BOM Report'!$D19</f>
         <v>C6, C7, C20</v>
@@ -12412,7 +12388,7 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="93"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="19" t="str">
         <f>'[1]BOM Report'!$D20</f>
         <v>C9, C10, C13, C14, C17, C18</v>
@@ -12464,7 +12440,7 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="19" t="str">
         <f>'[1]BOM Report'!$D21</f>
         <v>C24, C25</v>
@@ -12513,7 +12489,7 @@
       <c r="W11" s="9"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="19" t="str">
         <f>'[1]BOM Report'!$D22</f>
         <v>D1, D3, D5, D7, D10, D11</v>
@@ -12571,7 +12547,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="19" t="str">
         <f>'[1]BOM Report'!$D23</f>
         <v>D2, D4, D6</v>
@@ -12626,7 +12602,7 @@
       <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="19" t="str">
         <f>'[1]BOM Report'!$D24</f>
         <v>D8, D9</v>
@@ -12677,7 +12653,7 @@
       <c r="W14" s="9"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="93"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="19" t="str">
         <f>'[1]BOM Report'!$D25</f>
         <v>D12</v>
@@ -12728,7 +12704,7 @@
       <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="19" t="str">
         <f>'[1]BOM Report'!$D26</f>
         <v>DC1</v>
@@ -12779,7 +12755,7 @@
       <c r="W16" s="9"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="93"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="19" t="str">
         <f>'[1]BOM Report'!$D27</f>
         <v>DC2</v>
@@ -12830,7 +12806,7 @@
       <c r="W17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="93"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="19" t="str">
         <f>'[1]BOM Report'!$D28</f>
         <v>DC3</v>
@@ -12881,7 +12857,7 @@
       <c r="W18" s="9"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="93"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="19" t="str">
         <f>'[1]BOM Report'!$D29</f>
         <v>DT2</v>
@@ -12931,7 +12907,7 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="93"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="19" t="str">
         <f>'[1]BOM Report'!$D30</f>
         <v>F1</v>
@@ -12982,7 +12958,7 @@
       <c r="W20" s="9"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="19" t="str">
         <f>'[1]BOM Report'!$D31</f>
         <v>F2</v>
@@ -13033,7 +13009,7 @@
       <c r="W21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="19" t="str">
         <f>'[1]BOM Report'!$D32</f>
         <v>FB1, FB2, FB3, FB4, FB5, FB6, FB7, FB8, FB9, FB10</v>
@@ -13092,7 +13068,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="93"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="25" t="str">
         <f>'[1]BOM Report'!$D33</f>
         <v>J1, J2</v>
@@ -13143,7 +13119,7 @@
       <c r="W23" s="26"/>
     </row>
     <row r="24" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="93"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="25" t="str">
         <f>'[1]BOM Report'!$D34</f>
         <v>J3, J26</v>
@@ -13200,13 +13176,13 @@
       </c>
     </row>
     <row r="25" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="93"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="25" t="str">
         <f>'[1]BOM Report'!$D35</f>
         <v>J4, J9, J11, J17, J18, J25, J28</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="26">
         <f>'[1]BOM Report'!$F35</f>
@@ -13258,13 +13234,13 @@
       </c>
     </row>
     <row r="26" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="93"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="25" t="str">
         <f>'[1]BOM Report'!$D36</f>
         <v>J5, J6, J7</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="26">
         <f>'[1]BOM Report'!$F36</f>
@@ -13308,7 +13284,7 @@
       <c r="W26" s="26"/>
     </row>
     <row r="27" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="25" t="str">
         <f>'[1]BOM Report'!$D37</f>
         <v>J8, J10, J12, J13, J14</v>
@@ -13360,7 +13336,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="93"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="25" t="str">
         <f>'[1]BOM Report'!$D38</f>
         <v>J15, J16, J27</v>
@@ -13415,13 +13391,13 @@
       </c>
     </row>
     <row r="29" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="93"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="25" t="str">
         <f>'[1]BOM Report'!$D39</f>
         <v>J19, J20, J21, J22, J23, J24, J29, J30</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="26">
         <f>'[1]BOM Report'!$F39</f>
@@ -13471,7 +13447,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="93"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="25" t="str">
         <f>'[1]BOM Report'!$D40</f>
         <v>J31, J32, J33, J34, J35</v>
@@ -13531,7 +13507,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="93"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="19" t="str">
         <f>'[1]BOM Report'!$D41</f>
         <v>Q1</v>
@@ -13582,7 +13558,7 @@
       <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="93"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="19" t="str">
         <f>'[1]BOM Report'!$D42</f>
         <v>Q2, Q3, Q4, Q5, Q6, Q9, Q10, Q11, Q12, Q13, Q14, Q15, Q16, Q17</v>
@@ -13643,7 +13619,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="93"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="19" t="str">
         <f>'[1]BOM Report'!$D43</f>
         <v>Q7, Q8</v>
@@ -13693,7 +13669,7 @@
       <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="93"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="19" t="str">
         <f>'[1]BOM Report'!$D44</f>
         <v>R1, R3, R4, R5, R8, R13, R14, R15, R16, R20, R22, R23, R25, R26, R27, R28, R37, R38, R39, R40, R45, R47, R48, R51, R53, R54, R55, R56, R57, R58, R59, R60, R61, R62, R63, R64, R65, R66, R67, R68, R69, R70, R71, R72, R73, R74, R75, R76, R77, R78, R79, R80, R81, R88, R89</v>
@@ -13763,7 +13739,7 @@
       <c r="X34" s="7"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="93"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="19" t="str">
         <f>'[1]BOM Report'!$D45</f>
         <v>R2</v>
@@ -13814,7 +13790,7 @@
       <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="19" t="str">
         <f>'[1]BOM Report'!$D46</f>
         <v>R6, R18, R19</v>
@@ -13867,7 +13843,7 @@
       <c r="W36" s="9"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="19" t="str">
         <f>'[1]BOM Report'!$D47</f>
         <v>R7, R9, R10, R11, R12, R29, R31, R33, R34, R35, R36, R41, R42, R43, R44, R46, R52, R21, R24, R85, R86</v>
@@ -13928,7 +13904,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="93"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="19" t="str">
         <f>'[1]BOM Report'!$D48</f>
         <v>R17, R49, R50</v>
@@ -13981,7 +13957,7 @@
       <c r="W38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="93"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="19" t="str">
         <f>'[1]BOM Report'!$D49</f>
         <v>R30, R32</v>
@@ -14032,7 +14008,7 @@
       <c r="W39" s="9"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="93"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="19" t="str">
         <f>'[1]BOM Report'!$D50</f>
         <v>R82, R83, R84, R87, R90</v>
@@ -14085,7 +14061,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="93"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="19" t="str">
         <f>'[1]BOM Report'!$D51</f>
         <v>S1, S2, S3, S5</v>
@@ -14136,7 +14112,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="19" t="str">
         <f>'[1]BOM Report'!$D52</f>
         <v>S4</v>
@@ -14185,7 +14161,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="99"/>
@@ -14205,7 +14181,7 @@
         <v>1022263</v>
       </c>
       <c r="H43" s="21">
-        <f>G43</f>
+        <f t="shared" ref="H43:H49" si="1">G43</f>
         <v>1022263</v>
       </c>
       <c r="I43" s="21"/>
@@ -14230,13 +14206,13 @@
       <c r="A44" s="98"/>
       <c r="B44" s="100"/>
       <c r="C44" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F44" s="21" t="s">
         <v>36</v>
@@ -14245,7 +14221,7 @@
         <v>672907</v>
       </c>
       <c r="H44" s="21">
-        <f>G44</f>
+        <f t="shared" si="1"/>
         <v>672907</v>
       </c>
       <c r="I44" s="21"/>
@@ -14270,13 +14246,13 @@
       <c r="A45" s="98"/>
       <c r="B45" s="100"/>
       <c r="C45" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>36</v>
@@ -14285,7 +14261,7 @@
         <v>2063718</v>
       </c>
       <c r="H45" s="21">
-        <f>G45</f>
+        <f t="shared" si="1"/>
         <v>2063718</v>
       </c>
       <c r="I45" s="21"/>
@@ -14311,13 +14287,13 @@
       <c r="A46" s="98"/>
       <c r="B46" s="100"/>
       <c r="C46" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>36</v>
@@ -14326,7 +14302,7 @@
         <v>151867</v>
       </c>
       <c r="H46" s="21">
-        <f>G46</f>
+        <f t="shared" si="1"/>
         <v>151867</v>
       </c>
       <c r="I46" s="21"/>
@@ -14351,13 +14327,13 @@
       <c r="A47" s="98"/>
       <c r="B47" s="100"/>
       <c r="C47" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>36</v>
@@ -14366,7 +14342,7 @@
         <v>1462545</v>
       </c>
       <c r="H47" s="21">
-        <f>G47</f>
+        <f t="shared" si="1"/>
         <v>1462545</v>
       </c>
       <c r="I47" s="21"/>
@@ -14407,7 +14383,7 @@
         <v>1641882</v>
       </c>
       <c r="H48" s="21">
-        <f>G48</f>
+        <f t="shared" si="1"/>
         <v>1641882</v>
       </c>
       <c r="I48" s="21"/>
@@ -14457,7 +14433,7 @@
         <v>1641883</v>
       </c>
       <c r="H49" s="21">
-        <f>G49</f>
+        <f t="shared" si="1"/>
         <v>1641883</v>
       </c>
       <c r="I49" s="21"/>
@@ -14504,7 +14480,7 @@
         <v>1641952</v>
       </c>
       <c r="H50" s="21">
-        <f t="shared" ref="H50:H55" si="1">G50</f>
+        <f t="shared" ref="H50:H55" si="2">G50</f>
         <v>1641952</v>
       </c>
       <c r="I50" s="21"/>
@@ -14527,7 +14503,7 @@
       <c r="W50" s="9"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="95"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="101"/>
       <c r="C51" s="19" t="s">
         <v>43</v>
@@ -14545,27 +14521,27 @@
         <v>1841347</v>
       </c>
       <c r="H51" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1841347</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9">
-        <f t="shared" ref="L51:P51" si="2">L30</f>
+        <f t="shared" ref="L51:P51" si="3">L30</f>
         <v>1</v>
       </c>
       <c r="M51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P51" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q51" s="9"/>
@@ -14577,8 +14553,8 @@
       <c r="W51" s="9"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="94" t="s">
-        <v>70</v>
+      <c r="A52" s="93" t="s">
+        <v>69</v>
       </c>
       <c r="B52" s="99"/>
       <c r="C52" s="19" t="s">
@@ -14597,7 +14573,7 @@
         <v>2137132</v>
       </c>
       <c r="H52" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2137132</v>
       </c>
       <c r="I52" s="21"/>
@@ -14638,7 +14614,7 @@
         <v>2137134</v>
       </c>
       <c r="H53" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2137134</v>
       </c>
       <c r="I53" s="21"/>
@@ -14661,7 +14637,7 @@
       <c r="W53" s="9"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="95"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="101"/>
       <c r="C54" s="19" t="s">
         <v>52</v>
@@ -14679,7 +14655,7 @@
         <v>1850223</v>
       </c>
       <c r="H54" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1850223</v>
       </c>
       <c r="I54" s="21"/>
@@ -14702,11 +14678,11 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>38</v>
@@ -14721,7 +14697,7 @@
         <v>2065138</v>
       </c>
       <c r="H55" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2065138</v>
       </c>
       <c r="I55" s="21"/>
@@ -14795,16 +14771,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="J1:W1"/>
     <mergeCell ref="A2:A42"/>
     <mergeCell ref="B1:I2"/>
-    <mergeCell ref="A43:A51"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14829,21 +14805,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -14907,11 +14883,11 @@
       </c>
       <c r="C6" s="15">
         <f>VLOOKUP(B6,'BOM de commande'!B:AL,36,FALSE)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="15">
         <f>VLOOKUP(B6,'BOM de commande'!B:AL,37,FALSE)</f>
-        <v>9.7200000000000006</v>
+        <v>12.636000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -15016,21 +14992,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
